--- a/Results/Results_BNBUSDT_horizon1.xlsx
+++ b/Results/Results_BNBUSDT_horizon1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -585,22 +585,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.34 (0.13)</t>
+          <t>0.41 (0.25)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.44 (0.52)</t>
+          <t>1.72 (0.94)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.18 (0.18)</t>
+          <t>0.20 (0.18)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>43.38 (6.45)</t>
+          <t>47.54 (6.21)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -610,31 +610,31 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>max\_depth: 16, max\_features: 4 \\</t>
+          <t>max\_depth: 16, max\_features: 2 \\</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0.58679363 0.45411619 0.19285045 0.25694847 0.30908186 0.40930522
- 0.15557496 0.25710749 0.29811952 0.45545232]</t>
+          <t>[0.50604851 0.78728236 0.16314039 0.29522093 0.25194775 0.40930522
+ 0.25490484 0.24063928 0.24800562 0.96073868]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[2.16292711 1.7880356  0.91840731 1.35433729 1.61800347 2.17285734
- 0.54143508 1.05208066 1.07458784 1.72433747]</t>
+          <t>[1.86529978 3.09984296 0.77691975 1.55606577 1.31891385 2.17285734
+ 0.8871249  0.98469292 0.89394958 3.63734609]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.27876377 0.04824579 0.08299162 0.05635555 0.22580895 0.68729132
- 0.1213393  0.1306684  0.08318649 0.08637846]</t>
+          <t>[0.26210059 0.08529794 0.06454652 0.06394269 0.17400572 0.68729132
+ 0.1973952  0.12775996 0.07326149 0.24810073]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[35.38461538 43.07692308 52.30769231 38.46153846 36.92307692 40.
- 56.92307692 41.53846154 46.15384615 43.07692308]</t>
+          <t>[41.53846154 58.46153846 58.46153846 46.15384615 43.07692308 40.
+ 43.07692308 50.76923077 46.15384615 47.69230769]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Regression Tree &amp; 0.34 $\pm$ 0.13 &amp; 1.44 $\pm$ 0.52 &amp; 0.18 $\pm$ 18.31 &amp; 43.38 $\pm$ 6.45 &amp; "-"</t>
+          <t>Regression Tree &amp; 0.41 $\pm$ 0.25 &amp; 1.72 $\pm$ 0.94 &amp; 0.20 $\pm$ 17.76 &amp; 47.54 $\pm$ 6.21 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -659,22 +659,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.23 (0.10)</t>
+          <t>0.22 (0.09)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.04 (0.61)</t>
+          <t>1.00 (0.56)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.15 (0.19)</t>
+          <t>0.14 (0.20)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>46.31 (5.82)</t>
+          <t>46.62 (6.08)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -684,31 +684,31 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>max\_depth: 16, max\_features: 10, n\_estimators: 50 \\</t>
+          <t>max\_depth: 16, max\_features: 10, n\_estimators: 200 \\</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.27787492 0.18533212 0.12990552 0.37318381 0.29521639 0.41701231
- 0.14522955 0.13334316 0.12617233 0.21834874]</t>
+          <t>[0.24086717 0.20256044 0.12327374 0.30729105 0.2903162  0.41738145
+ 0.13928384 0.13710204 0.12948067 0.23307914]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[1.0242497  0.72972609 0.61864608 1.96699656 1.54541954 2.21377154
- 0.50543078 0.54563857 0.45479495 0.82666593]</t>
+          <t>[0.88783874 0.79756082 0.58706371 1.61968555 1.51976767 2.21573119
+ 0.48473838 0.56101984 0.46672004 0.88243506]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.12803204 0.02826054 0.04558586 0.08629198 0.21219297 0.70831554
- 0.1004626  0.06602845 0.03946564 0.04926057]</t>
+          <t>[0.11405275 0.02975704 0.04153109 0.0683178  0.20700554 0.70946791
+ 0.09719808 0.06795193 0.04090642 0.05234243]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[58.46153846 38.46153846 44.61538462 47.69230769 44.61538462 41.53846154
- 43.07692308 53.84615385 41.53846154 49.23076923]</t>
+          <t>[58.46153846 40.         53.84615385 46.15384615 47.69230769 44.61538462
+ 40.         50.76923077 38.46153846 46.15384615]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Random Forest &amp; 0.23 $\pm$ 0.10 &amp; 1.04 $\pm$ 0.61 &amp; 0.15 $\pm$ 19.43 &amp; 46.31 $\pm$ 5.82 &amp; "-"</t>
+          <t>Random Forest &amp; 0.22 $\pm$ 0.09 &amp; 1.00 $\pm$ 0.56 &amp; 0.14 $\pm$ 19.52 &amp; 46.62 $\pm$ 6.08 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -837,19 +837,19 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0.61225764 0.2522599  0.55224339 1.41160425 0.47800998 0.48542431
+          <t>[0.61225764 0.2522599  0.55224337 1.41160418 0.47801053 0.48542542
  1.03706711 1.14585347 1.7384694  2.44596998]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[2.25678769 0.99324728 2.62993615 7.44035675 2.5023203  2.57694679
+          <t>[2.25678769 0.99324729 2.62993606 7.44035641 2.5023232  2.57695264
  3.60922165 4.68881809 6.26640636 9.26041548]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.34208432 0.04246019 0.26751275 0.36822866 0.44366301 0.89197906
+          <t>[0.34208432 0.04246019 0.26751274 0.36822864 0.44366367 0.89198194
  0.86488691 0.6482024  0.67047474 0.68439647]</t>
         </is>
       </c>
@@ -886,7 +886,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.16 (0.52)</t>
+          <t>1.16 (0.51)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>49.38 (4.69)</t>
+          <t>49.08 (4.32)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -911,26 +911,26 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.39948455 0.36775642 0.14077164 0.27230539 0.29954373 0.40930584
- 0.14743547 0.21164739 0.14192432 0.24694339]</t>
+          <t>[0.39852272 0.37753841 0.13752365 0.2664467  0.30029223 0.40930569
+ 0.14710104 0.22817629 0.14847398 0.23623286]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[1.47250397 1.44800292 0.67039357 1.43528136 1.56807264 2.17286059
- 0.51310787 0.86605847 0.51157383 0.93492498]</t>
+          <t>[1.46895866 1.48651848 0.65492574 1.40440106 1.57199093 2.17285982
+ 0.51194398 0.93369452 0.53518243 0.89437501]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.17295261 0.04718179 0.05177557 0.06103626 0.21666766 0.68729273
- 0.1043389  0.10580098 0.04478606 0.04913296]</t>
+          <t>[0.16905284 0.04701313 0.05127145 0.05909074 0.21847194 0.68729214
+ 0.10494853 0.11199719 0.04630293 0.04853259]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[50.76923077 46.15384615 46.15384615 43.07692308 43.07692308 56.92307692
- 49.23076923 56.92307692 50.76923077 50.76923077]</t>
+          <t>[50.76923077 47.69230769 43.07692308 44.61538462 47.69230769 55.38461538
+ 47.69230769 53.84615385 44.61538462 55.38461538]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>GBM \cite{friedman2001greedy} &amp; 0.26 $\pm$ 0.10 &amp; 1.16 $\pm$ 0.52 &amp; 0.15 $\pm$ 18.63 &amp; 49.38 $\pm$ 4.69 &amp; "-"</t>
+          <t>GBM \cite{friedman2001greedy} &amp; 0.26 $\pm$ 0.10 &amp; 1.16 $\pm$ 0.51 &amp; 0.15 $\pm$ 18.62 &amp; 49.08 $\pm$ 4.32 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1103,22 +1103,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.35 (0.32)</t>
+          <t>0.35 (0.37)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.60 (1.69)</t>
+          <t>1.64 (1.94)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.16 (0.13)</t>
+          <t>0.15 (0.12)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>47.08 (6.16)</t>
+          <t>48.31 (4.97)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1133,26 +1133,26 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[0.61364139 0.2662364  0.50065759 1.15599065 0.38756355 0.09651857
- 0.10113561 0.08197963 0.1241128  0.14278687]</t>
+          <t>[0.59629523 0.24808227 0.46148867 1.34087019 0.3200543  0.09982325
+ 0.10385843 0.08172076 0.12530345 0.15029674]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[2.2618882  1.04827831 2.38427026 6.09305535 2.02884498 0.51238311
- 0.35197418 0.33545964 0.44737125 0.54058952]</t>
+          <t>[2.1979501  0.97679832 2.19773702 7.067528   1.67544279 0.52992651
+ 0.36145017 0.33440032 0.45166303 0.56902181]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.33211    0.04209402 0.23958796 0.30000318 0.35009478 0.14022901
- 0.07393698 0.03620955 0.03715328 0.03088194]</t>
+          <t>[0.32067404 0.04182925 0.21398495 0.34948    0.28310697 0.14573956
+ 0.07537558 0.03627477 0.03756295 0.03348587]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[44.61538462 36.92307692 46.15384615 50.76923077 61.53846154 46.15384615
- 47.69230769 50.76923077 43.07692308 43.07692308]</t>
+          <t>[44.61538462 43.07692308 50.76923077 47.69230769 60.         46.15384615
+ 50.76923077 50.76923077 41.53846154 47.69230769]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MLP &amp; 0.35 $\pm$ 0.32 &amp; 1.60 $\pm$ 1.69 &amp; 0.16 $\pm$ 12.67 &amp; 47.08 $\pm$ 6.16 &amp; "-"</t>
+          <t>MLP &amp; 0.35 $\pm$ 0.37 &amp; 1.64 $\pm$ 1.94 &amp; 0.15 $\pm$ 12.13 &amp; 48.31 $\pm$ 4.97 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1177,22 +1177,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.31 (0.35)</t>
+          <t>0.28 (0.23)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.44 (1.87)</t>
+          <t>1.24 (1.14)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.13 (0.11)</t>
+          <t>0.12 (0.09)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>46.92 (5.11)</t>
+          <t>46.00 (4.64)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1207,26 +1207,26 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0.54426128 0.19262802 0.20881482 1.28584979 0.3494276  0.05826888
- 0.10815346 0.08364269 0.13052699 0.14842698]</t>
+          <t>[0.62349187 0.19645563 0.28723144 0.77637941 0.32234822 0.08633445
+ 0.10046269 0.08795687 0.12585963 0.14450179]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[2.00615242 0.75845294 0.99443407 6.77752362 1.82920823 0.30932899
- 0.37639784 0.34226486 0.47049156 0.56194291]</t>
+          <t>[2.29819718 0.77352377 1.36787576 4.09218079 1.68745118 0.45831921
+ 0.34963225 0.35991843 0.45366782 0.54708219]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.25342748 0.02993745 0.09054579 0.33162443 0.3092724  0.08493107
- 0.07758634 0.03663867 0.03925521 0.03276411]</t>
+          <t>[0.28831418 0.03121124 0.132886   0.19257548 0.27459197 0.1115281
+ 0.07100601 0.03849122 0.03795116 0.03207174]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[46.15384615 43.07692308 46.15384615 47.69230769 52.30769231 56.92307692
- 38.46153846 50.76923077 46.15384615 41.53846154]</t>
+          <t>[46.15384615 43.07692308 46.15384615 47.69230769 52.30769231 52.30769231
+ 38.46153846 50.76923077 43.07692308 40.        ]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>CNN &amp; 0.31 $\pm$ 0.35 &amp; 1.44 $\pm$ 1.87 &amp; 0.13 $\pm$ 11.43 &amp; 46.92 $\pm$ 5.11 &amp; "-"</t>
+          <t>CNN &amp; 0.28 $\pm$ 0.23 &amp; 1.24 $\pm$ 1.14 &amp; 0.12 $\pm$ 9.44 &amp; 46.00 $\pm$ 4.64 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1256,17 +1256,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.25 (1.87)</t>
+          <t>2.23 (1.89)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.28 (0.25)</t>
+          <t>0.26 (0.21)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>48.00 (4.66)</t>
+          <t>47.08 (4.92)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1281,26 +1281,26 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.26925266 0.25204191 0.54828558 1.39545285 0.47829367 0.48542388
- 0.53477317 0.15228605 0.18318228 0.60206908]</t>
+          <t>[0.26926229 0.25201986 0.55028483 1.40981153 0.47684488 0.433653
+ 0.5313265  0.13786862 0.1921217  0.61278127]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[0.99246796 0.99238898 2.61108793 7.35522515 2.50380541 2.57694448
- 1.86112825 0.62315261 0.66029037 2.27942693]</t>
+          <t>[0.99250345 0.99230219 2.62060895 7.43090763 2.49622117 2.30211113
+ 1.84913309 0.56415666 0.69251298 2.31998316]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[0.14149199 0.04234928 0.26518417 0.36391183 0.44399911 0.89195703
- 0.35787313 0.06070176 0.05663432 0.14851681]</t>
+          <t>[0.14162904 0.04237371 0.26637405 0.36774943 0.44226918 0.75157487
+ 0.35576199 0.05424359 0.06046919 0.15159313]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[47.69230769 36.92307692 49.23076923 49.23076923 52.30769231 55.38461538
- 46.15384615 49.23076923 44.61538462 49.23076923]</t>
+          <t>[46.15384615 36.92307692 52.30769231 50.76923077 53.84615385 47.69230769
+ 41.53846154 50.76923077 46.15384615 44.61538462]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>RNN &amp; 0.49 $\pm$ 0.34 &amp; 2.25 $\pm$ 1.87 &amp; 0.28 $\pm$ 24.61 &amp; 48.00 $\pm$ 4.66 &amp; "-"</t>
+          <t>RNN &amp; 0.49 $\pm$ 0.34 &amp; 2.23 $\pm$ 1.89 &amp; 0.26 $\pm$ 21.23 &amp; 47.08 $\pm$ 4.92 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.39 (0.37)</t>
+          <t>0.39 (0.34)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.87 (2.02)</t>
+          <t>1.87 (1.90)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>45.85 (3.49)</t>
+          <t>49.08 (4.48)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1355,25 +1355,25 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[0.26930606 0.25191017 0.44861    1.40850112 0.4768725  0.48530236
- 0.14684247 0.11395273 0.13337593 0.16911386]</t>
+          <t>[0.2692649  0.25204288 0.54943018 1.32137285 0.45339439 0.48539895
+ 0.14689843 0.11523688 0.1339219  0.17818791]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[0.9926648  0.99187028 2.1364052  7.42400066 2.49636575 2.57629939
- 0.51104408 0.46629316 0.48076069 0.6402632 ]</t>
+          <t>[0.99251307 0.9923928  2.61653887 6.96476044 2.37346086 2.57681214
+ 0.51123884 0.47154786 0.48272867 0.67461745]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[0.14140449 0.04234272 0.20530783 0.36739888 0.44229944 0.8916366
- 0.10288503 0.05142174 0.04124348 0.0375763 ]</t>
+          <t>[0.14144878 0.04237501 0.26585983 0.34409585 0.41416142 0.89189127
+ 0.09955457 0.05153279 0.04076711 0.03926489]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[46.15384615 38.46153846 47.69230769 44.61538462 50.76923077 49.23076923
+          <t>[44.61538462 53.84615385 52.30769231 50.76923077 56.92307692 50.76923077
  44.61538462 47.69230769 47.69230769 41.53846154]</t>
         </is>
       </c>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>LSTM &amp; 0.39 $\pm$ 0.37 &amp; 1.87 $\pm$ 2.02 &amp; 0.23 $\pm$ 25.81 &amp; 45.85 $\pm$ 3.49 &amp; "-"</t>
+          <t>LSTM &amp; 0.39 $\pm$ 0.34 &amp; 1.87 $\pm$ 1.90 &amp; 0.23 $\pm$ 25.50 &amp; 49.08 $\pm$ 4.48 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1399,22 +1399,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.42 (0.36)</t>
+          <t>0.43 (0.36)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.97 (1.97)</t>
+          <t>2.01 (1.96)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.23 (0.21)</t>
+          <t>0.23 (0.20)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>46.92 (4.83)</t>
+          <t>47.69 (4.41)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1429,26 +1429,26 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[0.27138845 0.25112252 0.55140962 1.40557107 0.47743641 0.40816714
- 0.39890837 0.09209088 0.11538845 0.22869344]</t>
+          <t>[0.27029042 0.25150324 0.5459818  1.40810024 0.47632848 0.40837327
+ 0.4216578  0.08704069 0.11212254 0.309503  ]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[1.00034049 0.98876899 2.62596552 7.40855676 2.49931775 2.16681565
- 1.38828886 0.37683472 0.41592387 0.86583086]</t>
+          <t>[0.99629314 0.99026801 2.60011669 7.42188765 2.49351787 2.16790994
+ 1.46746188 0.35616943 0.40415172 1.17177495]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[0.1427106  0.04221276 0.26717364 0.36662377 0.44304426 0.68422338
- 0.23504454 0.03734869 0.03590411 0.05361053]</t>
+          <t>[0.14206479 0.0422796  0.26400695 0.36730177 0.44177528 0.68493463
+ 0.25159976 0.03906471 0.0356169  0.06806699]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[46.15384615 38.46153846 47.69230769 49.23076923 55.38461538 47.69230769
- 44.61538462 53.84615385 43.07692308 43.07692308]</t>
+          <t>[46.15384615 38.46153846 49.23076923 52.30769231 53.84615385 49.23076923
+ 46.15384615 52.30769231 44.61538462 44.61538462]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>GRU &amp; 0.42 $\pm$ 0.36 &amp; 1.97 $\pm$ 1.97 &amp; 0.23 $\pm$ 20.51 &amp; 46.92 $\pm$ 4.83 &amp; "-"</t>
+          <t>GRU &amp; 0.43 $\pm$ 0.36 &amp; 2.01 $\pm$ 1.96 &amp; 0.23 $\pm$ 20.39 &amp; 47.69 $\pm$ 4.41 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1473,22 +1473,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.19 (0.11)</t>
+          <t>0.20 (0.14)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.84 (0.59)</t>
+          <t>0.89 (0.72)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.08 (0.04)</t>
+          <t>0.09 (0.07)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>47.54 (5.17)</t>
+          <t>48.15 (5.06)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1503,26 +1503,26 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[0.29805516 0.22164308 0.25305876 0.45404192 0.11766666 0.08353758
- 0.09831891 0.09161757 0.12622022 0.15688365]</t>
+          <t>[0.34647863 0.22131377 0.21564466 0.53937392 0.07085987 0.15977496
+ 0.10011215 0.09017013 0.1220336  0.14646699]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[1.09863424 0.87269672 1.205136   2.39318768 0.61596971 0.4434716
- 0.34217144 0.37489793 0.45496757 0.59395979]</t>
+          <t>[1.27712365 0.87140012 1.02695967 2.84295998 0.37094225 0.84818901
+ 0.3484123  0.36897506 0.43987668 0.55452242]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[0.15277553 0.03712182 0.11040976 0.10777486 0.075581   0.10600063
- 0.07062375 0.04051219 0.03799246 0.03459338]</t>
+          <t>[0.17072227 0.03645817 0.0875112  0.13186684 0.04393936 0.24330606
+ 0.07180868 0.04012734 0.03648421 0.03205616]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[46.15384615 38.46153846 47.69230769 52.30769231 49.23076923 55.38461538
- 47.69230769 53.84615385 41.53846154 43.07692308]</t>
+          <t>[46.15384615 38.46153846 47.69230769 52.30769231 55.38461538 53.84615385
+ 47.69230769 52.30769231 44.61538462 43.07692308]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>WaveNet &amp; 0.19 $\pm$ 0.11 &amp; 0.84 $\pm$ 0.59 &amp; 0.08 $\pm$ 3.86 &amp; 47.54 $\pm$ 5.17 &amp; "-"</t>
+          <t>WaveNet &amp; 0.20 $\pm$ 0.14 &amp; 0.89 $\pm$ 0.72 &amp; 0.09 $\pm$ 6.77 &amp; 48.15 $\pm$ 5.06 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1547,66 +1547,66 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.36 (0.32)</t>
+          <t>0.28 (0.27)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.61 (1.50)</t>
+          <t>1.17 (1.07)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.17 (0.14)</t>
+          <t>0.12 (0.14)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>50.15 (6.39)</t>
+          <t>48.92 (5.05)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>omega: 50, r: 0.3 \\</t>
+          <t>omega: 50, r: 0.1 \\</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[0.96035345 0.38622624 0.51840649 0.9487591  0.20553349 0.15019229
- 0.11467612 0.0812258  0.12472685 0.1437927 ]</t>
+          <t>[0.96489179 0.30810347 0.29569818 0.53197995 0.09955594 0.09378983
+ 0.11299193 0.07844273 0.12333991 0.14260418]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[3.53987227 1.52072595 2.46879544 5.00076861 1.07594119 0.79731802
- 0.39909813 0.33237496 0.44958464 0.54439758]</t>
+          <t>[3.55660063 1.2131256  1.4081967  2.80398746 0.52116246 0.49789719
+ 0.39323678 0.32098665 0.44458534 0.53989785]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[0.51592498 0.06290441 0.23773924 0.24408397 0.18151828 0.23696561
- 0.08209693 0.03675791 0.03710523 0.03205009]</t>
+          <t>[0.51121818 0.05100632 0.13377117 0.13383815 0.0729578  0.13566086
+ 0.08130067 0.03362694 0.03673895 0.03168472]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[46.15384615 58.46153846 56.92307692 52.30769231 60.         44.61538462
- 46.15384615 52.30769231 43.07692308 41.53846154]</t>
+          <t>[44.61538462 56.92307692 49.23076923 50.76923077 58.46153846 47.69230769
+ 46.15384615 49.23076923 43.07692308 43.07692308]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[5. 5. 5. 5. 5. 5. 5. 5. 5. 5.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>eTS &amp; 0.36 $\pm$ 0.32 &amp; 1.61 $\pm$ 1.50 &amp; 0.17 $\pm$ 14.42 &amp; 50.15 $\pm$ 6.39 &amp; 5 $\pm$ 0</t>
+          <t>eTS &amp; 0.28 $\pm$ 0.27 &amp; 1.17 $\pm$ 1.07 &amp; 0.12 $\pm$ 13.58 &amp; 48.92 $\pm$ 5.05 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1621,27 +1621,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.40 (0.32)</t>
+          <t>0.28 (0.27)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.85 (1.65)</t>
+          <t>1.17 (1.07)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.22 (0.20)</t>
+          <t>0.12 (0.14)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>50.77 (5.01)</t>
+          <t>48.92 (5.05)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>44 (7)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1651,36 +1651,36 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[0.74659781 0.31460898 0.62824459 1.13176232 0.35225252 0.36804521
- 0.09983235 0.09849465 0.12969884 0.15352729]</t>
+          <t>[0.96489179 0.30810347 0.29569818 0.53197995 0.09955594 0.09378983
+ 0.11299193 0.07844273 0.12333991 0.14260418]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[2.75196689 1.23874036 2.99187494 5.96535143 1.84399631 1.95382245
- 0.34743853 0.40303886 0.46750643 0.58125265]</t>
+          <t>[3.55660063 1.2131256  1.4081967  2.80398746 0.52116246 0.49789719
+ 0.39323678 0.32098665 0.44458534 0.53989785]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[0.41395156 0.05297202 0.29016583 0.29126849 0.31440717 0.65613812
- 0.07159998 0.04703064 0.03896093 0.0344804 ]</t>
+          <t>[0.51121818 0.05100632 0.13377117 0.13383815 0.0729578  0.13566086
+ 0.08130067 0.03362694 0.03673895 0.03168472]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[47.69230769 55.38461538 49.23076923 52.30769231 61.53846154 52.30769231
- 50.76923077 49.23076923 41.53846154 47.69230769]</t>
+          <t>[44.61538462 56.92307692 49.23076923 50.76923077 58.46153846 47.69230769
+ 46.15384615 49.23076923 43.07692308 43.07692308]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[63. 41. 47. 41. 41. 41. 41. 41. 41. 41.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Simpl\_eTS &amp; 0.40 $\pm$ 0.32 &amp; 1.85 $\pm$ 1.65 &amp; 0.22 $\pm$ 19.84 &amp; 50.77 $\pm$ 5.01 &amp; 44 $\pm$ 7</t>
+          <t>Simpl\_eTS &amp; 0.28 $\pm$ 0.27 &amp; 1.17 $\pm$ 1.07 &amp; 0.12 $\pm$ 13.58 &amp; 48.92 $\pm$ 5.05 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1695,66 +1695,66 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.31 (0.23)</t>
+          <t>0.26 (0.25)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.30 (0.93)</t>
+          <t>1.13 (1.05)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.14 (0.12)</t>
+          <t>0.12 (0.13)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>48.92 (6.45)</t>
+          <t>49.69 (5.59)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6 (3)</t>
+          <t>3 (0)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>mu: 0.7, omega: 50 \\</t>
+          <t>mu: 0.1, omega: 50 \\</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[0.84647551 0.53370419 0.33591305 0.48288268 0.13968296 0.15138484
- 0.2167753  0.08868132 0.13006311 0.14521596]</t>
+          <t>[0.86798784 0.24107115 0.29618405 0.5841566  0.0957493  0.08762935
+ 0.10099112 0.08146035 0.12783481 0.14530017]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[3.12011704 2.10140514 1.5997111  2.54520301 0.73122222 0.80364883
- 0.75442574 0.36288287 0.46881947 0.54978601]</t>
+          <t>[3.19941171 0.94919277 1.41051056 3.07900287 0.50123517 0.46519337
+ 0.3514713  0.33333472 0.46078745 0.55010485]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[0.46504825 0.08816417 0.15206911 0.1208795  0.09840558 0.22919555
- 0.13939924 0.041345   0.03833936 0.03215611]</t>
+          <t>[0.47306503 0.04011367 0.14059422 0.14735913 0.0708668  0.12539536
+ 0.07219898 0.0362562  0.03860485 0.032685  ]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[43.07692308 61.53846154 46.15384615 49.23076923 56.92307692 47.69230769
- 41.53846154 55.38461538 44.61538462 43.07692308]</t>
+          <t>[44.61538462 56.92307692 52.30769231 53.84615385 60.         47.69230769
+ 47.69230769 47.69230769 41.53846154 44.61538462]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[ 3.  3.  3.  4.  4.  6.  9. 10. 10. 10.]</t>
+          <t>[2. 3. 3. 3. 3. 3. 3. 3. 3. 3.]</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>exTS &amp; 0.31 $\pm$ 0.23 &amp; 1.30 $\pm$ 0.93 &amp; 0.14 $\pm$ 12.26 &amp; 48.92 $\pm$ 6.45 &amp; 6 $\pm$ 3</t>
+          <t>exTS &amp; 0.26 $\pm$ 0.25 &amp; 1.13 $\pm$ 1.05 &amp; 0.12 $\pm$ 12.58 &amp; 49.69 $\pm$ 5.59 &amp; 3 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1769,66 +1769,66 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>6.98 (10.78)</t>
+          <t>0.20 (0.06)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>26.30 (40.31)</t>
+          <t>0.85 (0.28)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.77 (3.61)</t>
+          <t>0.11 (0.09)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>45.08 (3.37)</t>
+          <t>44.46 (4.89)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4 (4)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.005, lambda1: 0.001, r: 0.75, s: 10000 \\</t>
+          <t>alpha: 0.01, beta: 0.001, lambda1: 0.1, omega: 10000, sigma: 0.75 \\</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[ 0.11813392  0.13046428  0.21953292  0.14042659  0.21983359  0.05425063
-  3.95894579 10.4718818  22.8636918  31.62905214]</t>
+          <t>[0.11813392 0.14183699 0.12352113 0.1882696  0.23509617 0.20437577
+ 0.21378766 0.21821736 0.18245341 0.33881904]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[  0.43544278   0.51368964   1.04547661   0.74016777   1.15080035
-   0.28799749  13.77800213  42.85080962  82.41340541 119.74724392]</t>
+          <t>[0.43544278 0.5584685  0.58824187 0.99234116 1.23069796 1.08495902
+ 0.74402807 0.89294273 0.65766311 1.28276516]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[0.05787263 0.01993433 0.10258383 0.02760382 0.16268276 0.08094726
- 3.33689904 6.07383295 8.94584444 8.89555578]</t>
+          <t>[0.05787263 0.0215651  0.04838161 0.03939624 0.16915715 0.32651965
+ 0.15685166 0.11761707 0.04918824 0.08662744]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[43.07692308 43.07692308 41.53846154 46.15384615 47.69230769 43.07692308
- 44.61538462 53.84615385 44.61538462 43.07692308]</t>
+          <t>[43.07692308 44.61538462 38.46153846 49.23076923 43.07692308 43.07692308
+ 43.07692308 56.92307692 41.53846154 41.53846154]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[ 1.  1.  1.  1.  1.  1.  4.  7. 10. 10.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>ePL &amp; 6.98 $\pm$ 10.78 &amp; 26.30 $\pm$ 40.31 &amp; 2.77 $\pm$ 361.23 &amp; 45.08 $\pm$ 3.37 &amp; 4 $\pm$ 4</t>
+          <t>ePL &amp; 0.20 $\pm$ 0.06 &amp; 0.85 $\pm$ 0.28 &amp; 0.11 $\pm$ 8.72 &amp; 44.46 $\pm$ 4.89 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1843,66 +1843,66 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.31 (0.15)</t>
+          <t>0.24 (0.09)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.38 (0.79)</t>
+          <t>1.05 (0.42)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.15 (0.11)</t>
+          <t>0.11 (0.06)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>44.46 (5.65)</t>
+          <t>45.54 (5.29)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20 (20)</t>
+          <t>20 (21)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>alpha: 0.01, lambda1: 0.5, omega: 10000, sigma: 0.003, w: 10 \\</t>
+          <t>alpha: 0.01, lambda1: 0.5, omega: 10000, sigma: 0.003, w: 50 \\</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[0.2898417  0.2990966  0.634101   0.51715756 0.17937666 0.26777426
- 0.15836881 0.18871945 0.23808257 0.34029372]</t>
+          <t>[0.30157481 0.24618561 0.44012342 0.18016859 0.26417691 0.14128036
+ 0.15834647 0.18198687 0.21186223 0.31863442]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[1.06835937 1.17766197 3.01976478 2.72586085 0.93901357 1.42151927
- 0.55115831 0.77223762 0.85818141 1.2883483 ]</t>
+          <t>[1.11160773 0.9693304  2.09598974 0.94964193 1.38293188 0.75000768
+ 0.55108056 0.744688   0.7636688  1.20634641]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[0.13906523 0.04574944 0.25382324 0.12531293 0.12847584 0.44529805
- 0.10379479 0.07507028 0.07913561 0.08790938]</t>
+          <t>[0.14298807 0.04064625 0.1682902  0.03492825 0.18990622 0.21429092
+ 0.10384524 0.07196124 0.06961723 0.07743527]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[32.30769231 43.07692308 43.07692308 38.46153846 50.76923077 43.07692308
- 46.15384615 49.23076923 46.15384615 52.30769231]</t>
+          <t>[43.07692308 40.         43.07692308 38.46153846 55.38461538 44.61538462
+ 43.07692308 53.84615385 49.23076923 44.61538462]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[ 2.  3.  3.  4.  4.  4. 30. 45. 48. 52.]</t>
+          <t>[ 2.  4.  4.  4.  4.  4. 30. 46. 49. 53.]</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>eMG &amp; 0.31 $\pm$ 0.15 &amp; 1.38 $\pm$ 0.79 &amp; 0.15 $\pm$ 11.25 &amp; 44.46 $\pm$ 5.65 &amp; 20 $\pm$ 20</t>
+          <t>eMG &amp; 0.24 $\pm$ 0.09 &amp; 1.05 $\pm$ 0.42 &amp; 0.11 $\pm$ 6.03 &amp; 45.54 $\pm$ 5.29 &amp; 20 $\pm$ 21</t>
         </is>
       </c>
     </row>
@@ -1917,22 +1917,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.13 (0.04)</t>
+          <t>0.11 (0.03)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.53 (0.14)</t>
+          <t>0.46 (0.12)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.06 (0.03)</t>
+          <t>0.04 (0.02)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>45.08 (2.92)</t>
+          <t>44.62 (3.23)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1942,41 +1942,41 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>alpha: 0.1, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 10000, pi: 0.3, sigma: 0.5 \\</t>
+          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 10000, pi: 0.3, sigma: 0.1 \\</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[0.12502853 0.13319325 0.11262489 0.13945327 0.05881833 0.06407589
- 0.17664819 0.18880847 0.12070929 0.15384998]</t>
+          <t>[0.11813392 0.1328169  0.11261136 0.13892131 0.05878259 0.06405344
+ 0.11173179 0.07819671 0.12403837 0.14578395]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[0.46085639 0.52443467 0.53635096 0.73503752 0.30790632 0.34015632
- 0.61477456 0.7726019  0.43510313 0.58247432]</t>
+          <t>[0.43544278 0.52295282 0.53628652 0.73223361 0.30771925 0.34003719
+ 0.3888512  0.31997996 0.44710296 0.55193645]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[0.06136706 0.0206165  0.03953148 0.0267654  0.03592777 0.07899479
- 0.12923712 0.09051714 0.0361626  0.03369622]</t>
+          <t>[0.05787263 0.02058081 0.0395073  0.02663838 0.03590416 0.07895825
+ 0.08036616 0.03231153 0.03755245 0.03206268]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>[43.07692308 46.15384615 40.         41.53846154 46.15384615 44.61538462
- 44.61538462 50.76923077 47.69230769 46.15384615]</t>
+ 43.07692308 52.30769231 46.15384615 43.07692308]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1. 1. 2. 2. 2.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>ePL+ &amp; 0.13 $\pm$ 0.04 &amp; 0.53 $\pm$ 0.14 &amp; 0.06 $\pm$ 3.28 &amp; 45.08 $\pm$ 2.92 &amp; 1 $\pm$ 0</t>
+          <t>ePL+ &amp; 0.11 $\pm$ 0.03 &amp; 0.46 $\pm$ 0.12 &amp; 0.04 $\pm$ 2.00 &amp; 44.62 $\pm$ 3.23 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1991,66 +1991,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.17 (0.05)</t>
+          <t>0.86 (1.77)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.74 (0.24)</t>
+          <t>3.24 (6.34)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.08 (0.07)</t>
+          <t>0.29 (0.53)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>49.85 (4.92)</t>
+          <t>49.69 (5.80)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3 (3)</t>
+          <t>7 (8)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>alpha: 0.05, beta: 0.01, e\_utility: 0.03, lambda1: 0.001, sigma: 1 \\</t>
+          <t>alpha: 0.05, beta: 0.1, e\_utility: 0.03, lambda1: 1e-07, sigma: 10 \\</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[0.22824436 0.2274422  0.13461226 0.19918615 0.06533754 0.21331449
- 0.21783805 0.10433043 0.15268333 0.19235366]</t>
+          <t>[0.750915   0.49886742 0.14443325 0.33883592 0.07276578 0.10123475
+ 0.21960737 0.13267545 6.14144455 0.23069916]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[0.84131097 0.89553016 0.64106088 1.04988067 0.34203357 1.13241152
- 0.75812434 0.42691882 0.55035527 0.72824884]</t>
+          <t>[ 2.76788006  1.96423894  0.68783118  1.78595389  0.38091942  0.53741966
+  0.76428196  0.54290628 22.13716684  0.8734245 ]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[0.12299383 0.03688039 0.05283815 0.04166956 0.03881884 0.26600465
- 0.1547848  0.04421737 0.04730218 0.04223493]</t>
+          <t>[0.38020782 0.08397582 0.05606776 0.08379604 0.04536738 0.14068601
+ 0.16297965 0.05507332 1.87077981 0.05193465]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[43.07692308 52.30769231 49.23076923 46.15384615 53.84615385 60.
- 47.69230769 52.30769231 50.76923077 43.07692308]</t>
+          <t>[38.46153846 55.38461538 49.23076923 60.         52.30769231 52.30769231
+ 46.15384615 52.30769231 44.61538462 46.15384615]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1. 4. 7. 7. 7.]</t>
+          <t>[ 1.  1.  1.  1.  1.  2. 13. 17. 18. 18.]</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>ePL-KRLS-DISCO &amp; 0.17 $\pm$ 0.05 &amp; 0.74 $\pm$ 0.24 &amp; 0.08 $\pm$ 7.17 &amp; 49.85 $\pm$ 4.92 &amp; 3 $\pm$ 3</t>
+          <t>ePL-KRLS-DISCO &amp; 0.86 $\pm$ 1.77 &amp; 3.24 $\pm$ 6.34 &amp; 0.29 $\pm$ 53.45 &amp; 49.69 $\pm$ 5.80 &amp; 7 $\pm$ 8</t>
         </is>
       </c>
     </row>
@@ -2065,66 +2065,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.27 (0.12)</t>
+          <t>0.32 (0.08)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.18 (0.52)</t>
+          <t>1.38 (0.50)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.17 (0.20)</t>
+          <t>0.19 (0.20)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>48.00 (6.03)</t>
+          <t>45.08 (3.90)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>14 (1)</t>
+          <t>9 (0)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>fuzzy\_operator: prod, rules: 14 \\</t>
+          <t>fuzzy\_operator: prod, rules: 9 \\</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[0.53884595 0.2135003  0.31226393 0.20120525 0.21452726 0.41908421
- 0.28748133 0.16953426 0.15202763 0.22447753]</t>
+          <t>[0.40401941 0.3271359  0.31837989 0.28153662 0.42677291 0.41908421
+ 0.34154007 0.19149811 0.23039762 0.21179965]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[1.98619147 0.84063538 1.48708743 1.06052304 1.12302241 2.22477054
- 1.00049826 0.69373206 0.54799177 0.84986946]</t>
+          <t>[1.4892195  1.28806381 1.51621331 1.48393781 2.23410087 2.22477054
+ 1.18863457 0.78360789 0.83048059 0.80187113]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.27000293 0.03461109 0.09299787 0.03926391 0.16089787 0.71403439
- 0.25501643 0.07208626 0.04985405 0.05069465]</t>
+          <t>[0.16516419 0.04768005 0.10211107 0.05688894 0.30455323 0.71403439
+ 0.29389452 0.08690373 0.0691713  0.05102943]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[47.69230769 40.         43.07692308 58.46153846 47.69230769 44.61538462
- 53.84615385 55.38461538 49.23076923 40.        ]</t>
+          <t>[43.07692308 40.         49.23076923 44.61538462 38.46153846 44.61538462
+ 46.15384615 52.30769231 44.61538462 47.69230769]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[12. 14. 14. 14. 14. 12. 14. 14. 14. 14.]</t>
+          <t>[8. 9. 9. 9. 9. 9. 9. 9. 9. 9.]</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NMR &amp; 0.27 $\pm$ 0.12 &amp; 1.18 $\pm$ 0.52 &amp; 0.17 $\pm$ 19.82 &amp; 48.00 $\pm$ 6.03 &amp; 14 $\pm$ 1</t>
+          <t>NMR &amp; 0.32 $\pm$ 0.08 &amp; 1.38 $\pm$ 0.50 &amp; 0.19 $\pm$ 19.73 &amp; 45.08 $\pm$ 3.90 &amp; 9 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2213,66 +2213,66 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.15 (0.08)</t>
+          <t>0.22 (0.19)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.65 (0.42)</t>
+          <t>0.94 (0.77)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.06 (0.03)</t>
+          <t>0.10 (0.10)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>47.23 (4.62)</t>
+          <t>47.69 (4.72)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5 (0)</t>
+          <t>10 (1)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 5 \\</t>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 13 \\</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[0.23176553 0.13497497 0.12046449 0.3463927  0.12952171 0.0619822
- 0.1155245  0.07909569 0.12221792 0.14152754]</t>
+          <t>[0.72146612 0.17298029 0.12705257 0.41061302 0.20246678 0.07453995
+ 0.1409804  0.07724879 0.121036   0.15076172]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[0.85429001 0.53144999 0.57368532 1.82578455 0.67802935 0.32904166
- 0.40205068 0.32365859 0.44054107 0.53582171]</t>
+          <t>[2.65933122 0.68109204 0.60505956 2.16428035 1.05988736 0.39570634
+ 0.49064281 0.3161011  0.43628075 0.57078223]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.11945234 0.02117527 0.04454574 0.0830624  0.08724138 0.07778611
- 0.08285883 0.03179198 0.03665281 0.03140079]</t>
+          <t>[0.3700889  0.02879455 0.04977412 0.09738526 0.13574794 0.09712159
+ 0.10176329 0.03228663 0.03601535 0.03450189]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[41.53846154 50.76923077 47.69230769 44.61538462 44.61538462 52.30769231
- 43.07692308 56.92307692 47.69230769 43.07692308]</t>
+          <t>[38.46153846 52.30769231 49.23076923 53.84615385 43.07692308 53.84615385
+ 46.15384615 49.23076923 46.15384615 44.61538462]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[5. 5. 5. 5. 5. 5. 5. 5. 5. 5.]</t>
+          <t>[ 9.  9.  9. 10. 11. 10. 10. 10. 10. 10.]</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>NTSK-wRLS &amp; 0.15 $\pm$ 0.08 &amp; 0.65 $\pm$ 0.42 &amp; 0.06 $\pm$ 3.09 &amp; 47.23 $\pm$ 4.62 &amp; 5 $\pm$ 0</t>
+          <t>NTSK-wRLS &amp; 0.22 $\pm$ 0.19 &amp; 0.94 $\pm$ 0.77 &amp; 0.10 $\pm$ 9.74 &amp; 47.69 $\pm$ 4.72 &amp; 10 $\pm$ 1</t>
         </is>
       </c>
     </row>
@@ -2287,22 +2287,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.31 (0.11)</t>
+          <t>0.34 (0.11)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.38 (0.63)</t>
+          <t>1.47 (0.61)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.19 (0.22)</t>
+          <t>0.20 (0.22)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>45.54 (5.43)</t>
+          <t>45.23 (3.17)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2312,31 +2312,31 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>error\_metric: MAE, fuzzy\_operator: max, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 3, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: RMSE, fuzzy\_operator: prod, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 3, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[0.36354586 0.15960621 0.18505722 0.43117727 0.38184824 0.46217759
- 0.23667188 0.16028904 0.35803497 0.37204441]</t>
+          <t>[0.50774457 0.1900268  0.18888989 0.44035487 0.37449695 0.46212136
+ 0.23245104 0.21736582 0.36711864 0.37579648]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[1.3400336  0.62843295 0.88129381 2.27267146 1.99892603 2.45353811
- 0.82367021 0.65590077 1.29055629 1.40855606]</t>
+          <t>[1.87155146 0.74821088 0.89954602 2.32104527 1.96044299 2.45323963
+ 0.80898074 0.88945821 1.32329887 1.42276136]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[0.16501769 0.0251612  0.06938855 0.10073653 0.27149618 0.81896708
- 0.18097336 0.06793292 0.11947034 0.07743077]</t>
+          <t>[0.2727092  0.03147401 0.06921442 0.10475698 0.26450648 0.81815355
+ 0.17012941 0.08483237 0.13180277 0.07961298]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[49.23076923 40.         40.         52.30769231 49.23076923 41.53846154
- 55.38461538 41.53846154 46.15384615 40.        ]</t>
+          <t>[46.15384615 38.46153846 43.07692308 49.23076923 47.69230769 41.53846154
+ 47.69230769 47.69230769 46.15384615 44.61538462]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>GEN-NMR &amp; 0.31 $\pm$ 0.11 &amp; 1.38 $\pm$ 0.63 &amp; 0.19 $\pm$ 22.03 &amp; 45.54 $\pm$ 5.43 &amp; 3 $\pm$ 0</t>
+          <t>GEN-NMR &amp; 0.34 $\pm$ 0.11 &amp; 1.47 $\pm$ 0.61 &amp; 0.20 $\pm$ 21.89 &amp; 45.23 $\pm$ 3.17 &amp; 3 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2366,17 +2366,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.46 (0.11)</t>
+          <t>0.45 (0.11)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.05 (0.03)</t>
+          <t>0.05 (0.02)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>45.54 (4.57)</t>
+          <t>45.69 (4.67)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2386,31 +2386,31 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, error\_metric: RMSE, fuzzy\_operator: max, lambda1: 0.97, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: RMSE, fuzzy\_operator: minmax, lambda1: 0.97, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[0.08179585 0.12587428 0.11848178 0.13226795 0.06920971 0.07712572
- 0.13428762 0.08171816 0.12398911 0.14858048]</t>
+          <t>[0.08720198 0.13197374 0.11435584 0.121857   0.0652185  0.06609899
+ 0.13018669 0.0817062  0.11862333 0.14886722]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[0.30150029 0.49561699 0.56424311 0.69716474 0.36230388 0.4094333
- 0.46735045 0.33438967 0.44692539 0.56252406]</t>
+          <t>[0.32142737 0.51963296 0.54459423 0.64229017 0.34141041 0.35089628
+ 0.45307833 0.33434076 0.42758415 0.56360965]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[0.03738231 0.01990133 0.04501975 0.02531253 0.0449309  0.09946648
- 0.09768688 0.03531359 0.03734225 0.03319618]</t>
+          <t>[0.04010909 0.02089298 0.04431067 0.02399172 0.04142292 0.09367611
+ 0.09352879 0.03544727 0.0353731  0.03351562]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[53.84615385 41.53846154 40.         44.61538462 41.53846154 44.61538462
- 46.15384615 53.84615385 46.15384615 43.07692308]</t>
+          <t>[52.30769231 44.61538462 36.92307692 49.23076923 40.         44.61538462
+ 44.61538462 52.30769231 47.69230769 44.61538462]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>GEN-NTSK-RLS &amp; 0.11 $\pm$ 0.03 &amp; 0.46 $\pm$ 0.11 &amp; 0.05 $\pm$ 2.65 &amp; 45.54 $\pm$ 4.57 &amp; 1 $\pm$ 0</t>
+          <t>GEN-NTSK-RLS &amp; 0.11 $\pm$ 0.03 &amp; 0.45 $\pm$ 0.11 &amp; 0.05 $\pm$ 2.47 &amp; 45.69 $\pm$ 4.67 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2435,66 +2435,66 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.15 (0.08)</t>
+          <t>0.24 (0.25)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.62 (0.35)</t>
+          <t>1.09 (1.36)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.06 (0.04)</t>
+          <t>0.09 (0.07)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>46.62 (5.20)</t>
+          <t>49.23 (6.71)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 5 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: CPPM, fuzzy\_operator: prod, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.3158498  0.15598197 0.12858474 0.26858461 0.069427   0.05711388
- 0.12189519 0.07987505 0.1227326  0.1432351 ]</t>
+          <t>[0.37017644 0.16707196 0.18020602 0.96129892 0.08952955 0.06251291
+ 0.1419879  0.11370731 0.11999127 0.19161648]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[1.16422545 0.61416291 0.61235618 1.41566967 0.36344135 0.30319747
- 0.42422207 0.32684769 0.44239625 0.5422865 ]</t>
+          <t>[1.36447401 0.65782858 0.85819105 5.06686414 0.46867558 0.33185905
+ 0.49414911 0.46528888 0.43251498 0.7254579 ]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[0.16646643 0.02511708 0.04915341 0.06189104 0.04603619 0.07495854
- 0.08609441 0.03413625 0.03658864 0.03113581]</t>
+          <t>[0.1929903  0.02666428 0.08152446 0.24171875 0.05927718 0.08359032
+ 0.10608868 0.05142221 0.03562083 0.04249702]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[36.92307692 41.53846154 47.69230769 44.61538462 50.76923077 50.76923077
- 50.76923077 55.38461538 44.61538462 43.07692308]</t>
+          <t>[43.07692308 44.61538462 61.53846154 58.46153846 52.30769231 50.76923077
+ 46.15384615 40.         52.30769231 43.07692308]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[6. 6. 6. 7. 7. 7. 6. 6. 6. 6.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>GEN-NTSK-wRLS &amp; 0.15 $\pm$ 0.08 &amp; 0.62 $\pm$ 0.35 &amp; 0.06 $\pm$ 3.98 &amp; 46.62 $\pm$ 5.20 &amp; 6 $\pm$ 0</t>
+          <t>GEN-NTSK-wRLS &amp; 0.24 $\pm$ 0.25 &amp; 1.09 $\pm$ 1.36 &amp; 0.09 $\pm$ 6.75 &amp; 49.23 $\pm$ 6.71 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2509,22 +2509,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.25 (0.10)</t>
+          <t>0.28 (0.09)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.11 (0.57)</t>
+          <t>1.21 (0.53)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.16 (0.19)</t>
+          <t>0.17 (0.19)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>46.31 (3.92)</t>
+          <t>45.85 (5.36)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2534,31 +2534,31 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>combination: mean, n\_estimators: 50 \\</t>
+          <t>combination: weighted\_average, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[0.24324517 0.15381167 0.22779659 0.19920303 0.40189771 0.40930523
- 0.38713127 0.13504451 0.13960177 0.20269279]</t>
+          <t>[0.22625553 0.16110312 0.29086269 0.21585824 0.39145764 0.40984456
+ 0.37878928 0.14606058 0.34020779 0.19459   ]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[0.89660409 0.60561758 1.0848305  1.04996963 2.10388243 2.17285735
- 1.34730196 0.55260043 0.50320207 0.76739268]</t>
+          <t>[0.83398011 0.63432688 1.38516875 1.1377568  2.04923004 2.17572051
+ 1.31827    0.59767805 1.22629727 0.73671561]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[0.1157518  0.02358496 0.06832947 0.03744641 0.28832064 0.68729202
- 0.22618301 0.05374141 0.04427381 0.05006927]</t>
+          <t>[0.10059962 0.02423223 0.10685524 0.04226329 0.27997869 0.68942818
+ 0.22076641 0.0595367  0.12018053 0.04897504]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[43.07692308 43.07692308 50.76923077 47.69230769 47.69230769 47.69230769
- 52.30769231 49.23076923 41.53846154 40.        ]</t>
+          <t>[43.07692308 35.38461538 47.69230769 43.07692308 44.61538462 55.38461538
+ 52.30769231 47.69230769 47.69230769 41.53846154]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>R-NMR &amp; 0.25 $\pm$ 0.10 &amp; 1.11 $\pm$ 0.57 &amp; 0.16 $\pm$ 19.48 &amp; 46.31 $\pm$ 3.92 &amp; "-"</t>
+          <t>R-NMR &amp; 0.28 $\pm$ 0.09 &amp; 1.21 $\pm$ 0.53 &amp; 0.17 $\pm$ 18.98 &amp; 45.85 $\pm$ 5.36 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.16 (0.12)</t>
+          <t>0.17 (0.11)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.69 (0.47)</t>
+          <t>0.72 (0.49)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>46.62 (4.13)</t>
+          <t>46.31 (4.15)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2608,31 +2608,31 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 5 \\</t>
+          <t>combination: mean, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.46202828 0.14267603 0.1387285  0.28737634 0.09285036 0.05983552
- 0.11582428 0.07824221 0.1206774  0.1423284 ]</t>
+          <t>[0.44692149 0.14275213 0.17233847 0.31761912 0.08587312 0.06294296
+ 0.12005066 0.07945775 0.11947841 0.14203203]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[1.70304078 0.56177215 0.66066359 1.51471808 0.48605962 0.3176457
- 0.40309396 0.32016613 0.43498818 0.53885378]</t>
+          <t>[1.647357   0.56207176 0.82072357 1.6741233  0.44953465 0.33414201
+ 0.4178027  0.32514011 0.43066634 0.53773172]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[0.24453182 0.02306322 0.05936357 0.06811462 0.0634172  0.07729662
- 0.08241408 0.0335398  0.03588184 0.03151426]</t>
+          <t>[0.23857799 0.02240284 0.07532705 0.07701473 0.0572836  0.07962457
+ 0.08670404 0.03459955 0.03548538 0.0315872 ]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[40.         43.07692308 46.15384615 44.61538462 50.76923077 53.84615385
- 49.23076923 50.76923077 44.61538462 43.07692308]</t>
+          <t>[38.46153846 44.61538462 44.61538462 46.15384615 50.76923077 52.30769231
+ 44.61538462 52.30769231 46.15384615 43.07692308]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>R-NTSK &amp; 0.16 $\pm$ 0.12 &amp; 0.69 $\pm$ 0.47 &amp; 0.07 $\pm$ 6.08 &amp; 46.62 $\pm$ 4.13 &amp; "-"</t>
+          <t>R-NTSK &amp; 0.17 $\pm$ 0.11 &amp; 0.72 $\pm$ 0.49 &amp; 0.07 $\pm$ 5.92 &amp; 46.31 $\pm$ 4.15 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.74 (0.38)</t>
+          <t>0.75 (0.37)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>48.31 (2.85)</t>
+          <t>46.92 (2.69)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2683,26 +2683,26 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[0.27682235 0.13691231 0.11856767 0.31603684 0.16868472 0.18501935
- 0.10328968 0.09287635 0.11779243 0.16056867]</t>
+          <t>[0.28597173 0.145114   0.1398029  0.30828742 0.15823846 0.18435026
+ 0.10605267 0.09379151 0.11873201 0.16321201]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[1.02036989 0.53907808 0.56465214 1.66578336 0.88304264 0.98220257
- 0.35947081 0.38004885 0.42458916 0.60791121]</t>
+          <t>[1.05409461 0.57137138 0.66578019 1.62493728 0.82835783 0.97865064
+ 0.36908663 0.38379369 0.4279759  0.61791889]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[0.13429003 0.02249844 0.04393389 0.07493239 0.11902902 0.29964357
- 0.07668806 0.04100684 0.03481067 0.03711064]</t>
+          <t>[0.13776275 0.02306686 0.05467969 0.07321284 0.10959509 0.29986652
+ 0.07885316 0.04192154 0.03552561 0.03791083]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[50.76923077 44.61538462 47.69230769 46.15384615 50.76923077 53.84615385
- 46.15384615 50.76923077 46.15384615 46.15384615]</t>
+          <t>[46.15384615 43.07692308 46.15384615 44.61538462 50.76923077 50.76923077
+ 46.15384615 50.76923077 44.61538462 46.15384615]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>RF-NTSK &amp; 0.17 $\pm$ 0.07 &amp; 0.74 $\pm$ 0.38 &amp; 0.09 $\pm$ 7.88 &amp; 48.31 $\pm$ 2.85 &amp; "-"</t>
+          <t>RF-NTSK &amp; 0.17 $\pm$ 0.07 &amp; 0.75 $\pm$ 0.37 &amp; 0.09 $\pm$ 7.80 &amp; 46.92 $\pm$ 2.69 &amp; "-"</t>
         </is>
       </c>
     </row>
